--- a/assets/excel/dados_tms.xlsx
+++ b/assets/excel/dados_tms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,111 +463,2755 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0044700450</t>
+          <t>0040717132</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VIVO</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>41992942493</t>
-        </is>
-      </c>
+          <t>41991920278</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PRROEPENTR101P</t>
+          <t xml:space="preserve">VIVO
+</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">35100
-</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0044700279</t>
+          <t>0041707928</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VIVO</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>41984978645</t>
-        </is>
-      </c>
+          <t>41992144497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PRTJCDENTR101P</t>
+          <t xml:space="preserve">VIVO
+</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>35100</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0044700316</t>
+          <t>0032705432</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VIVO</t>
+          <t>4192314071</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>41984710157</t>
+          <t>00000000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PRIRCTENTR101P</t>
+          <t xml:space="preserve">VIVO
+</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">35100
-</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0044700908</t>
+          <t>0033702636</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tim</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>41995460710</t>
-        </is>
-      </c>
+          <t>4491471938</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PRLIAAENTR101P</t>
+          <t xml:space="preserve">VIVO
+</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">35100
-</t>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0039715873</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>41991874849</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0033712872</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>11986241752</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0032704208</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4192819609</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0041708635</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>89550537420004334355</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Claro</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0033712638</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4187859133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claro
+</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>0043703357</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>41997833030</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>31000</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>0033700168</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4491048622</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>0033712459</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4185045692</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>0032700532</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4184822441</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>0043703310</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>41997833714</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>0033712837</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>4184110558</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0032703283</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4187750035</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claro
+</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>0033702230</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>4184900011</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>0033711819</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4184959440</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>0033711996</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>4184954875</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>0043702512</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>41997270280</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0043701966</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>5541996234156</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0039714893</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>41995112045</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>31000</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>0033711800</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>4184958708</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>0033712936</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>4187755575</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claro
+</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>0033702532</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>4491215743</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0032704329</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4192053081</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0032702152</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>41985014042</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>0032700391</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4191681594 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>0033711516</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>4491374677</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>0042711436</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>41992699462</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>0033703796</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>4491212602</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>0032703539</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>4191619311</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>0033711533</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>4184957730</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>0043700533</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>41997833799</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0032702253</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>4491518878</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>0042711275</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>41992085627</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>31000</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>0032703321</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>4491055999</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0042711421</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>41992649871</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>0041700613</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>41991529136</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>0043706635</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>41987746479</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claro
+</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>0043701164</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>41998804911</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>31000</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>0032705802</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>4192261237</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>0032700356</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>4191618944</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>HEMERA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>0033712719</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>4184492054</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>0043700990</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>41998805719</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>0033712282</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>4185083476</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>0043702369</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>44999659150</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>0033700967</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>4491433116</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>0033704109</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>4491051562</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>0033712852</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>4184099405</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>0033712603</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>4184282223</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>0043700288</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>41996139716</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>0042712186</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>41992125949</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>0033711580</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>4184950128</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>0033700989</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>4491460442</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>0033711813</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>4184958234</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MMGD</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>0032700358</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>4192826236</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>0041707709</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>41991372722</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>0033712013</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>4184955826</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>0032704716</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>4192893846</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>0041701042</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>41991172428</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>0041707083</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>41992896706</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>0033712623</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>4184310161</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>0033712696</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>4184490443</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>0043706573</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>41988775585</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claro
+</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>0043701481</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>41997151616</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>0032701494</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4191155043 </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>0033710961</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>4491547318</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>0033712273</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>4185083552</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>0032702265</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4491311346 </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>0041708817</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>45999880348</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>0033711809</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>4184957736</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>0033702661</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>4491378115</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>0039716102</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>41992281492</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>0032701645</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4192150953 </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>0032705229</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>4192859761</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>MMGD</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>0032705607</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>4192828234</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>0042712415</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>41992868066</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>0033712851</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>4184099766</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>0043700171</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>41997837053</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>0033703446</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>44999787287</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>0032700642</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>4184822312</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>0033712488</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>4185044078</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>0033701069</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>4491596383</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>0032701539</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4491378429 </t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>0033712692</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>4184812055</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>0043700046</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>41996136131</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>0039715709</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>41999579969</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>31000</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>0041708918</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>89550447000000713924</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>0042712993</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>11916951735</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>0033702177</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>4491595385</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>0043703478</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>41997836119</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>0041707473</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>41992097687</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>0033712098</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>4184959436</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>0033712088</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>4184952016</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi
+</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>0033711171</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>4491726385</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>0032701926</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4192053859 </t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>0032701252</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>4491550899</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>HEMERA</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>0039714700</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>41995110526</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>0043702986</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>41997839343</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>0043701796</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>49988195074</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claro
+</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>0033700542</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>4491585840</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>0032705227</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>4192815127</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>0039714491</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>41995113032</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>31000</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>0042711981</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>49988040688</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claro
+</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>31000</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0043706759</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>49988548152</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claro
+</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>0042711595</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>49988867536</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claro
+</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>0043701012</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>41998396224</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>0042714449</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>41992220421</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>31000</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>0043701813</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>49988490918</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claro
+</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>0042713247</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>11975100474</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>0039714666</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>41995111238</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>0042713470</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>11997637372</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVO
+</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>0043704002</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>43981115546</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim
+</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
